--- a/details.xlsx
+++ b/details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajeetacharya/Desktop/Machine Learning Practice/Practice by me/Car Price Prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE23B56-E3DB-174D-8F00-E1206AE083EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E541D7-EC17-5440-920E-BFCE3912C89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -861,7 +861,7 @@
   <dimension ref="F2:N32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:K6"/>
+      <selection activeCell="H19" sqref="H19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
